--- a/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
+++ b/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/tests/testthat/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D47F4D-5490-6849-ADDF-765AE2981E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414D5C1-384C-BF4A-AD8E-EFBB03DD5DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="12600" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
+    <workbookView xWindow="24380" yWindow="12600" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,20 @@
     <definedName name="SampleAmountUnit">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleType">[1]!Table1[Sample_Type]</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1085,12 +1098,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
@@ -3336,13 +3349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4946AB-D291-A441-8BD4-AFE744BDE9E2}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3710,11 +3723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF20C9-E726-8549-8B20-6F3F3BE0DDC1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
+++ b/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
@@ -1,28 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10105"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/tests/testthat/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3414D5C1-384C-BF4A-AD8E-EFBB03DD5DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA45ACD-98DE-F84A-8F66-8ECCFA74156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="12600" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
+    <workbookView xWindow="24380" yWindow="12600" windowWidth="38120" windowHeight="22160" activeTab="11" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyses" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="2" r:id="rId2"/>
     <sheet name="ISTDs" sheetId="3" r:id="rId3"/>
     <sheet name="RQCs" sheetId="4" r:id="rId4"/>
+    <sheet name="QCconc" sheetId="5" r:id="rId5"/>
+    <sheet name="Analyses_Inconsistent" sheetId="6" r:id="rId6"/>
+    <sheet name="Features_Inconsist_Both" sheetId="7" r:id="rId7"/>
+    <sheet name="Features_Inconsist_qual" sheetId="8" r:id="rId8"/>
+    <sheet name="Features_Inconsist_val" sheetId="9" r:id="rId9"/>
+    <sheet name="Analyses_missing_val" sheetId="10" r:id="rId10"/>
+    <sheet name="Features_missing_val" sheetId="11" r:id="rId11"/>
+    <sheet name="Features_missing_quan" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
+    <definedName name="SampleAmountUnit" localSheetId="5">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="9">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="6">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="7">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="8">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="11">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="10">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleAmountUnit">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleType" localSheetId="5">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="9">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="6">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="7">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="8">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="11">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="10">[1]!Table1[Sample_Type]</definedName>
     <definedName name="SampleType">[1]!Table1[Sample_Type]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="125">
   <si>
     <t>analysis_id</t>
   </si>
@@ -394,13 +416,37 @@
   </si>
   <si>
     <t>S1P d19:1 [M&gt;113]</t>
+  </si>
+  <si>
+    <t>S1P d18:1 [M&gt;60]</t>
+  </si>
+  <si>
+    <t>S1P d18:2 [M&gt;60]</t>
+  </si>
+  <si>
+    <t>S1P d18:0 [M&gt;60]</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>concentration_unit</t>
+  </si>
+  <si>
+    <t>umol/L</t>
+  </si>
+  <si>
+    <t>is_quantifier</t>
+  </si>
+  <si>
+    <t>valid_feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +592,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -889,7 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -897,6 +949,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1098,12 +1151,12 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
@@ -1429,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1A2D03-4C83-7448-999B-AC6C8C01C8BE}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C56" sqref="A1:J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,6 +1545,9 @@
       <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
@@ -1521,6 +1577,9 @@
       <c r="G3" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -1550,6 +1609,9 @@
       <c r="G4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -1579,6 +1641,9 @@
       <c r="G5" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -1608,6 +1673,9 @@
       <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
@@ -1637,6 +1705,9 @@
       <c r="G7" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -1666,6 +1737,9 @@
       <c r="G8" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1695,6 +1769,9 @@
       <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
@@ -1724,6 +1801,9 @@
       <c r="G10" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
@@ -1753,6 +1833,9 @@
       <c r="G11" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
       <c r="I11">
         <v>1</v>
       </c>
@@ -1782,6 +1865,9 @@
       <c r="G12" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
@@ -1811,6 +1897,9 @@
       <c r="G13" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
       <c r="I13">
         <v>1</v>
       </c>
@@ -1840,6 +1929,9 @@
       <c r="G14" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
       <c r="I14">
         <v>1</v>
       </c>
@@ -1869,6 +1961,9 @@
       <c r="G15" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
       <c r="I15">
         <v>1</v>
       </c>
@@ -1898,6 +1993,9 @@
       <c r="G16" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1927,6 +2025,9 @@
       <c r="G17" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
       <c r="I17">
         <v>1</v>
       </c>
@@ -1956,6 +2057,9 @@
       <c r="G18" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -1985,6 +2089,9 @@
       <c r="G19" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -2014,6 +2121,9 @@
       <c r="G20" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -2043,6 +2153,9 @@
       <c r="G21" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -2072,6 +2185,9 @@
       <c r="G22" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
       <c r="I22">
         <v>1</v>
       </c>
@@ -2101,6 +2217,9 @@
       <c r="G23" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -2130,6 +2249,9 @@
       <c r="G24" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
       <c r="I24">
         <v>1</v>
       </c>
@@ -2159,6 +2281,9 @@
       <c r="G25" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -2188,6 +2313,9 @@
       <c r="G26" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
       <c r="I26">
         <v>1</v>
       </c>
@@ -2217,6 +2345,9 @@
       <c r="G27" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
       <c r="I27">
         <v>1</v>
       </c>
@@ -2246,6 +2377,9 @@
       <c r="G28" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
       <c r="I28">
         <v>1</v>
       </c>
@@ -2275,6 +2409,9 @@
       <c r="G29" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -2304,6 +2441,9 @@
       <c r="G30" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -2333,6 +2473,9 @@
       <c r="G31" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -2362,6 +2505,9 @@
       <c r="G32" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
       <c r="I32">
         <v>1</v>
       </c>
@@ -2391,6 +2537,9 @@
       <c r="G33" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
       <c r="I33">
         <v>1</v>
       </c>
@@ -2420,6 +2569,9 @@
       <c r="G34" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
       <c r="I34">
         <v>1</v>
       </c>
@@ -2449,6 +2601,9 @@
       <c r="G35" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
       <c r="I35">
         <v>1</v>
       </c>
@@ -2478,6 +2633,9 @@
       <c r="G36" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
       <c r="I36">
         <v>1</v>
       </c>
@@ -2507,6 +2665,9 @@
       <c r="G37" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
       <c r="I37">
         <v>1</v>
       </c>
@@ -2536,6 +2697,9 @@
       <c r="G38" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
       <c r="I38">
         <v>1</v>
       </c>
@@ -2565,6 +2729,9 @@
       <c r="G39" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
       <c r="I39">
         <v>1</v>
       </c>
@@ -2594,6 +2761,9 @@
       <c r="G40" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
       <c r="I40">
         <v>1</v>
       </c>
@@ -2623,6 +2793,9 @@
       <c r="G41" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
       <c r="I41">
         <v>1</v>
       </c>
@@ -2652,6 +2825,9 @@
       <c r="G42" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
       <c r="I42">
         <v>1</v>
       </c>
@@ -2681,6 +2857,9 @@
       <c r="G43" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
       <c r="I43">
         <v>1</v>
       </c>
@@ -2710,6 +2889,9 @@
       <c r="G44" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
       <c r="I44">
         <v>1</v>
       </c>
@@ -2739,6 +2921,9 @@
       <c r="G45" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
       <c r="I45">
         <v>1</v>
       </c>
@@ -2768,6 +2953,9 @@
       <c r="G46" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
       <c r="I46">
         <v>1</v>
       </c>
@@ -2797,6 +2985,9 @@
       <c r="G47" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
       <c r="I47">
         <v>1</v>
       </c>
@@ -2826,6 +3017,9 @@
       <c r="G48" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
       <c r="I48">
         <v>1</v>
       </c>
@@ -2855,6 +3049,9 @@
       <c r="G49" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
       <c r="I49">
         <v>1</v>
       </c>
@@ -2884,6 +3081,9 @@
       <c r="G50" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
       <c r="I50">
         <v>1</v>
       </c>
@@ -2913,6 +3113,9 @@
       <c r="G51" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
       <c r="I51">
         <v>1</v>
       </c>
@@ -2942,6 +3145,9 @@
       <c r="G52" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
       <c r="I52">
         <v>1</v>
       </c>
@@ -2971,6 +3177,9 @@
       <c r="G53" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H53" t="s">
+        <v>84</v>
+      </c>
       <c r="I53">
         <v>1</v>
       </c>
@@ -3000,6 +3209,9 @@
       <c r="G54" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
       <c r="I54">
         <v>1</v>
       </c>
@@ -3029,6 +3241,9 @@
       <c r="G55" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
       <c r="I55">
         <v>1</v>
       </c>
@@ -3058,6 +3273,9 @@
       <c r="G56" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H56" t="s">
+        <v>87</v>
+      </c>
       <c r="I56">
         <v>1</v>
       </c>
@@ -3087,6 +3305,9 @@
       <c r="G57" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
       <c r="I57">
         <v>1</v>
       </c>
@@ -3116,6 +3337,9 @@
       <c r="G58" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H58" t="s">
+        <v>89</v>
+      </c>
       <c r="I58">
         <v>1</v>
       </c>
@@ -3145,6 +3369,9 @@
       <c r="G59" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H59" t="s">
+        <v>90</v>
+      </c>
       <c r="I59">
         <v>1</v>
       </c>
@@ -3174,6 +3401,9 @@
       <c r="G60" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H60" t="s">
+        <v>91</v>
+      </c>
       <c r="I60">
         <v>1</v>
       </c>
@@ -3203,6 +3433,9 @@
       <c r="G61" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
       <c r="I61">
         <v>1</v>
       </c>
@@ -3232,6 +3465,9 @@
       <c r="G62" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
       <c r="I62">
         <v>1</v>
       </c>
@@ -3261,6 +3497,9 @@
       <c r="G63" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
       <c r="I63">
         <v>1</v>
       </c>
@@ -3290,6 +3529,9 @@
       <c r="G64" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
       <c r="I64">
         <v>1</v>
       </c>
@@ -3318,6 +3560,9 @@
       </c>
       <c r="G65" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>96</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3345,6 +3590,2651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F9C58-122C-9144-9DCD-2E162A51DEA2}">
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>200</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>200</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>200</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>200</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1">
+        <v>200</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>200</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>200</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>200</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Sample Type" sqref="B2:B65" xr:uid="{741D5DD1-79B3-224F-90EB-1966A10FF924}">
+      <formula1>SampleType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D65" xr:uid="{783D67A9-4D3F-FA47-B6B4-A8FE56DD32EE}">
+      <formula1>SampleAmountUnit</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Input must be a non negative number" sqref="C2:C65" xr:uid="{B6285420-FEAB-454D-B642-7A13040BE08E}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="Input must be a non negative number." sqref="E2:E65" xr:uid="{CB9C1D78-BE85-B94A-96D1-16188D5A84A7}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E40097D-13AC-DD48-849B-00CA3A9318FD}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4">
+        <v>3.1587200000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC45046-E71A-6146-9D34-15BE4CDDC4C5}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4">
+        <v>3.1587200000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4946AB-D291-A441-8BD4-AFE744BDE9E2}">
   <dimension ref="A1:J16"/>
@@ -3723,7 +6613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF20C9-E726-8549-8B20-6F3F3BE0DDC1}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3964,4 +6854,3146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87632706-939A-574D-95FA-7F33366AA384}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F1B885-A433-C44B-A0D0-32FA68320FFA}">
+  <dimension ref="A1:J65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
+        <v>200</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
+        <v>200</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
+        <v>200</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <v>200</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="1">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>200</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="1">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1">
+        <v>200</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1">
+        <v>200</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1">
+        <v>200</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>200</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <v>200</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" t="s">
+        <v>94</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <v>200</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <v>200</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="Input must be a non negative number." sqref="E2:E65" xr:uid="{DC49641D-9C14-6F4D-97E2-617F53AC52EE}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input" error="Input must be a non negative number" sqref="C2:C65" xr:uid="{D5F8BCA6-455B-654A-9696-8CFFCA4096C1}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D65" xr:uid="{AE625DF1-AEF8-0B47-8851-3351A4158CA6}">
+      <formula1>SampleAmountUnit</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Sample Type" sqref="B2:B65" xr:uid="{B16A1CFE-302E-394F-956E-5DDAD55D45E0}">
+      <formula1>SampleType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E189B1C-3C5B-AA43-971C-56C24874AA1C}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4">
+        <v>3.1587200000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17724552-30C7-8845-9B15-793ECF385713}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4">
+        <v>3.1587200000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CDC573-D87A-024A-AB4A-08F9A778C82E}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4">
+        <v>3.1587200000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
+++ b/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/tests/testthat/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA45ACD-98DE-F84A-8F66-8ECCFA74156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0194D-297E-FC4A-A056-53619ACA6E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24380" yWindow="12600" windowWidth="38120" windowHeight="22160" activeTab="11" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
+    <workbookView xWindow="8380" yWindow="5180" windowWidth="38120" windowHeight="22160" firstSheet="2" activeTab="13" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyses" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,11 @@
     <sheet name="Analyses_missing_val" sheetId="10" r:id="rId10"/>
     <sheet name="Features_missing_val" sheetId="11" r:id="rId11"/>
     <sheet name="Features_missing_quan" sheetId="12" r:id="rId12"/>
+    <sheet name="Features_inval_interf" sheetId="13" r:id="rId13"/>
+    <sheet name="Features_miss_interf" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="SampleAmountUnit" localSheetId="5">[1]!Table2[Sample_Amount_Unit]</definedName>
@@ -35,6 +37,8 @@
     <definedName name="SampleAmountUnit" localSheetId="6">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleAmountUnit" localSheetId="7">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleAmountUnit" localSheetId="8">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="12">[1]!Table2[Sample_Amount_Unit]</definedName>
+    <definedName name="SampleAmountUnit" localSheetId="13">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleAmountUnit" localSheetId="11">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleAmountUnit" localSheetId="10">[1]!Table2[Sample_Amount_Unit]</definedName>
     <definedName name="SampleAmountUnit">[1]!Table2[Sample_Amount_Unit]</definedName>
@@ -43,6 +47,8 @@
     <definedName name="SampleType" localSheetId="6">[1]!Table1[Sample_Type]</definedName>
     <definedName name="SampleType" localSheetId="7">[1]!Table1[Sample_Type]</definedName>
     <definedName name="SampleType" localSheetId="8">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="12">[1]!Table1[Sample_Type]</definedName>
+    <definedName name="SampleType" localSheetId="13">[1]!Table1[Sample_Type]</definedName>
     <definedName name="SampleType" localSheetId="11">[1]!Table1[Sample_Type]</definedName>
     <definedName name="SampleType" localSheetId="10">[1]!Table1[Sample_Type]</definedName>
     <definedName name="SampleType">[1]!Table1[Sample_Type]</definedName>
@@ -65,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="127">
   <si>
     <t>analysis_id</t>
   </si>
@@ -440,6 +446,12 @@
   </si>
   <si>
     <t>valid_feature</t>
+  </si>
+  <si>
+    <t>S1P d18:3 [M&gt;60]</t>
+  </si>
+  <si>
+    <t>S1P d18:1 [M&gt;213]</t>
   </si>
 </sst>
 </file>
@@ -1148,6 +1160,7 @@
       <sheetName val="Instructions"/>
       <sheetName val="About"/>
       <sheetName val="Lists"/>
+      <sheetName val="MiDAR_Metadata_Template_191_202"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1158,6 +1171,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5580,7 +5594,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="H4" sqref="H4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5909,7 +5923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC45046-E71A-6146-9D34-15BE4CDDC4C5}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
@@ -6235,12 +6249,756 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE51291B-A6DD-3046-AAC8-22E69978F1AB}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4">
+        <v>3.1587200000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391E718A-19CC-B043-9E91-EBD4CD5DE280}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5">
+        <v>3.1538499999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12">
+        <v>2.8666500000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2.86123E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4946AB-D291-A441-8BD4-AFE744BDE9E2}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B11" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
+++ b/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/tests/testthat/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0194D-297E-FC4A-A056-53619ACA6E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F28C37-4B07-3C4F-94E6-30214D2863B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="5180" windowWidth="38120" windowHeight="22160" firstSheet="2" activeTab="13" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
+    <workbookView xWindow="8380" yWindow="5180" windowWidth="38120" windowHeight="22160" activeTab="1" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyses" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="136">
   <si>
     <t>analysis_id</t>
   </si>
@@ -424,15 +424,6 @@
     <t>S1P d19:1 [M&gt;113]</t>
   </si>
   <si>
-    <t>S1P d18:1 [M&gt;60]</t>
-  </si>
-  <si>
-    <t>S1P d18:2 [M&gt;60]</t>
-  </si>
-  <si>
-    <t>S1P d18:0 [M&gt;60]</t>
-  </si>
-  <si>
     <t>concentration</t>
   </si>
   <si>
@@ -452,13 +443,49 @@
   </si>
   <si>
     <t>S1P d18:1 [M&gt;213]</t>
+  </si>
+  <si>
+    <t>analyte_id</t>
+  </si>
+  <si>
+    <t>S1P d18:1</t>
+  </si>
+  <si>
+    <t>S1P d18:2</t>
+  </si>
+  <si>
+    <t>S1P d18:3</t>
+  </si>
+  <si>
+    <t>S1P d18:0</t>
+  </si>
+  <si>
+    <t>S1P d16:1</t>
+  </si>
+  <si>
+    <t>S1P d17:1</t>
+  </si>
+  <si>
+    <t>S1P d18:0</t>
+  </si>
+  <si>
+    <t>S1P d18:1</t>
+  </si>
+  <si>
+    <t>S1P d18:2</t>
+  </si>
+  <si>
+    <t>S1P d19:1</t>
+  </si>
+  <si>
+    <t>S1P d20:1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,6 +637,12 @@
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -5620,10 +5653,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -5950,10 +5983,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -6355,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I4">
         <v>3.1587200000000003E-2</v>
@@ -6527,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I12">
         <v>2.8666500000000001E-2</v>
@@ -6628,7 +6661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391E718A-19CC-B043-9E91-EBD4CD5DE280}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -6995,10 +7028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4946AB-D291-A441-8BD4-AFE744BDE9E2}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7006,7 +7039,7 @@
     <col min="1" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7020,25 +7053,28 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -7048,17 +7084,20 @@
       <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -7068,17 +7107,20 @@
       <c r="C3" t="s">
         <v>103</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -7088,23 +7130,26 @@
       <c r="C4" t="s">
         <v>103</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>106</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.1587200000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -7114,23 +7159,26 @@
       <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
         <v>107</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.1538499999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -7140,17 +7188,20 @@
       <c r="C6" t="s">
         <v>103</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -7160,17 +7211,20 @@
       <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -7180,17 +7234,20 @@
       <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -7200,17 +7257,20 @@
       <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -7220,17 +7280,20 @@
       <c r="C10" t="s">
         <v>103</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -7240,17 +7303,20 @@
       <c r="C11" t="s">
         <v>103</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -7260,23 +7326,26 @@
       <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>114</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.8666500000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -7286,23 +7355,26 @@
       <c r="C13" t="s">
         <v>103</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>115</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.86123E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -7312,17 +7384,20 @@
       <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -7332,17 +7407,20 @@
       <c r="C15" t="s">
         <v>103</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -7352,13 +7430,16 @@
       <c r="C16" t="s">
         <v>103</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="G16" t="b">
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7619,7 +7700,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A2:B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7633,13 +7714,13 @@
         <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -7650,13 +7731,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C2">
         <v>0.2</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7664,13 +7745,13 @@
         <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>0.2</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7678,13 +7759,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7692,13 +7773,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7706,13 +7787,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>0.05</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7720,16 +7801,17 @@
         <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C7">
         <v>0.05</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9752,10 +9834,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -10082,10 +10164,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -10448,10 +10530,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>

--- a/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
+++ b/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/tests/testthat/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F28C37-4B07-3C4F-94E6-30214D2863B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9D0A5B-3AC6-2B47-8BB3-8CFF991FEDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8380" yWindow="5180" windowWidth="38120" windowHeight="22160" activeTab="1" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="137">
   <si>
     <t>analysis_id</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>S1P d20:1</t>
+  </si>
+  <si>
+    <t>interference_contribution</t>
   </si>
 </sst>
 </file>
@@ -7031,7 +7034,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7068,7 +7071,7 @@
         <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>

--- a/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
+++ b/tests/testthat/testdata/MIDAR_TestData_MHQuant_S1P_metadata_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsibjb/Documents/Code/midar/tests/testthat/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F28C37-4B07-3C4F-94E6-30214D2863B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E0E57D-74DD-0F49-B3E0-2E8C94EDCEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="5180" windowWidth="38120" windowHeight="22160" activeTab="1" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
+    <workbookView xWindow="8380" yWindow="5180" windowWidth="38120" windowHeight="22160" activeTab="2" xr2:uid="{7A04E2C8-868F-5640-98CB-88D372530A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Analyses" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="137">
   <si>
     <t>analysis_id</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>S1P d20:1</t>
+  </si>
+  <si>
+    <t>istd_conc_ngml</t>
   </si>
 </sst>
 </file>
@@ -7030,7 +7033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4946AB-D291-A441-8BD4-AFE744BDE9E2}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -7450,10 +7453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEF20C9-E726-8549-8B20-6F3F3BE0DDC1}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7461,7 +7464,7 @@
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -7469,10 +7472,13 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -7480,7 +7486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>111</v>
       </c>
